--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -38,11 +38,20 @@
     <t>Line</t>
   </si>
   <si>
-    <t>TestLine</t>
+    <t>error</t>
+  </si>
+  <si>
+    <t>教官</t>
   </si>
   <si>
     <t>江承彦是一名&lt;color=#FF0000&gt;魁梧男子&lt;/color&gt;。
 江承彦是双开门大冰箱。</t>
+  </si>
+  <si>
+    <t>江承彦</t>
+  </si>
+  <si>
+    <t>我是世界第一美少女！</t>
   </si>
 </sst>
 </file>
@@ -658,11 +667,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -979,10 +991,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1002,139 +1014,156 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:3">
-      <c r="A2">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="28" spans="1:3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
         <v>26</v>
       </c>
     </row>

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -48,7 +48,7 @@
 江承彦是双开门大冰箱。</t>
   </si>
   <si>
-    <t>江承彦</t>
+    <t>懒惰病毒</t>
   </si>
   <si>
     <t>我是世界第一美少女！</t>
@@ -994,7 +994,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -38,6 +38,12 @@
     <t>Line</t>
   </si>
   <si>
+    <t>PanelID</t>
+  </si>
+  <si>
+    <t>PanelPosition</t>
+  </si>
+  <si>
     <t>error</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
   <si>
     <t>江承彦是一名&lt;color=#FF0000&gt;魁梧男子&lt;/color&gt;。
 江承彦是双开门大冰箱。</t>
+  </si>
+  <si>
+    <t>下</t>
   </si>
   <si>
     <t>懒惰病毒</t>
@@ -64,10 +73,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -537,141 +552,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -991,19 +1009,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.8727272727273" customWidth="1"/>
-    <col min="3" max="3" width="98.4909090909091" customWidth="1"/>
+    <col min="3" max="3" width="70.4727272727273" customWidth="1"/>
+    <col min="5" max="5" width="17.9272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,38 +1032,50 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="28" spans="1:3">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="28" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4D1FAD-A808-496C-9892-7C6DCA0AA37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB844F2-7D93-4616-B0B9-5501B6573B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>Instruction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教官</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -152,6 +156,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,7 +431,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -504,44 +511,71 @@
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -549,68 +583,101 @@
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB844F2-7D93-4616-B0B9-5501B6573B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACDE99C-47C0-4566-8925-9CB022FE9CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -52,26 +52,109 @@
   </si>
   <si>
     <t>教官</t>
+  </si>
+  <si>
+    <t>下</t>
+  </si>
+  <si>
+    <t>懒惰病毒</t>
+  </si>
+  <si>
+    <t>我是世界第一美少女！</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海报</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到我们的海报了吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来，我会教你如何指挥细胞军团！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>江承彦是一名&lt;color=#FF0000&gt;魁梧男子&lt;/color&gt;。
 江承彦是双开门大冰箱。</t>
-  </si>
-  <si>
-    <t>下</t>
-  </si>
-  <si>
-    <t>懒惰病毒</t>
-  </si>
-  <si>
-    <t>我是世界第一美少女！</t>
-  </si>
-  <si>
-    <t>Instruction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每轮进攻结束后，会抽取新的卡牌。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可以在敌人头顶上看到它的意图。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方形的指令牌被放到战场上后，会马上执行效果，不需要等待发起进攻。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同的卡牌，发挥效果的时机也不同！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在你排兵布阵的时候，别忘了查看敌人的意图！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后，记得多查看手册复习这些内容！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击右上角的齿轮，再点击手册，就可以复习教学。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么医生，祝你好运！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些效果需要其他卡牌的协助：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先要把手牌放到右边的战场上，
+每张牌都会占据一定的空间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人将要攻击你的时候，
+打出防御系的牌来获得&lt;color=#484848&gt;格挡&lt;/color&gt;。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#484848&gt;格挡&lt;/color&gt;能够抵消一部分伤害，
+但会在回合结束时消失。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他卡牌会激活&lt;color=#191970&gt;触发效果&lt;/color&gt;的能力；
+&lt;color=#FF0000&gt;给予效果&lt;/color&gt;的能力可以影响其他的卡牌;
+&lt;color=#BE5700&gt;扩展格子&lt;/color&gt;可以开启被锁住的格子，增加战场空间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场上填满卡牌之后，
+你就可以按下中间大大的&lt;color=#FF0000&gt;&lt;b&gt;按钮&lt;/b&gt;&lt;/color&gt;发起进攻。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -152,14 +235,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -459,8 +542,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>11</v>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -481,11 +564,11 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -493,193 +576,357 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACDE99C-47C0-4566-8925-9CB022FE9CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C16B577-80E4-4CF5-9614-71467609BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -153,8 +153,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>太好了医生，你终于来了！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么？你问我是谁？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是白细胞教官，我会教你如何指挥患者身体里的细胞军团抗击病毒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>战场上填满卡牌之后，
-你就可以按下中间大大的&lt;color=#FF0000&gt;&lt;b&gt;按钮&lt;/b&gt;&lt;/color&gt;发起进攻。</t>
+你就可以按下中间大大的&lt;color=#FF0000&gt;按钮&lt;/color&gt;发起进攻。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡组配好之后，
+点击右下角的&lt;color=#FF0000&gt;扫描按钮&lt;/color&gt;来查看你要面对的敌人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你准备好自己的队伍之后，
+就可以点击查看敌人面板右下角的&lt;color=#FF0000&gt;按钮&lt;/color&gt;，开始战斗。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是基地，是你做战前准备的地方。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每群敌人都会标记为身体上的一个红点，点击就可以查看。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右上角的&lt;color=#00FF00&gt;军营&lt;/color&gt;可以配置你的细胞队伍，
+也就是选择卡牌来配卡组。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是军营，你可以在这里配置你的队伍。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击右侧仓库中的卡牌来加入卡组，点击卡组中的卡牌可以将它放回仓库。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键点击仓库中的卡牌可以放大检视。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败敌人之后，可以获得更多种类的其他卡牌。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -513,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -645,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -804,127 +855,201 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C16B577-80E4-4CF5-9614-71467609BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9112E3-69A1-4327-9083-4A85F93C8115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -205,7 +205,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>击败敌人之后，可以获得更多种类的其他卡牌。</t>
+    <t>放置需要选择目标的卡牌之后，通过箭头选定目标。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖拽卡牌时按右键可以旋转；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败敌人之后，可以获得更多种类的其他卡牌；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不过如果你失败了，那就会损失小队中所有的卡牌。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -564,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -688,15 +700,15 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -708,7 +720,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -720,23 +732,23 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>29</v>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -744,11 +756,11 @@
         <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -756,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -768,11 +780,11 @@
         <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -780,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -792,11 +804,11 @@
         <v>11</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -804,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -816,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="4"/>
     </row>
@@ -828,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E21" s="4"/>
     </row>
@@ -840,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E22" s="4"/>
     </row>
@@ -848,7 +860,12 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -859,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
@@ -869,24 +886,12 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -896,10 +901,10 @@
         <v>11</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -907,10 +912,10 @@
         <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -918,7 +923,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -929,7 +934,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="28" x14ac:dyDescent="0.25">
@@ -940,23 +945,40 @@
         <v>11</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1046,11 +1068,17 @@
         <v>11</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9112E3-69A1-4327-9083-4A85F93C8115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4CF31B-379B-44BF-8585-F5BF85145638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -218,6 +218,26 @@
   </si>
   <si>
     <t>不过如果你失败了，那就会损失小队中所有的卡牌。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>camp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,6 +326,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,511 +597,619 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.90625" customWidth="1"/>
-    <col min="3" max="3" width="70.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" customWidth="1"/>
-    <col min="6" max="6" width="2.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" customWidth="1"/>
+    <col min="4" max="4" width="70.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" customWidth="1"/>
+    <col min="7" max="7" width="2.453125" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4CF31B-379B-44BF-8585-F5BF85145638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1603FC6C-0963-479A-ABE0-2AFC20C0D6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DEBEF9-78F4-4FE7-AAF8-8E233BF4ABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -99,9 +103,6 @@
   <si>
     <t>当一切部署就绪，
 你可以按下&lt;color=#FF0000&gt;中间大大的红色按钮&lt;/color&gt;发起进攻。</t>
-  </si>
-  <si>
-    <t>每轮进攻结束后，你会得到新的卡牌。</t>
   </si>
   <si>
     <t>当敌人出现&lt;color=#FF0000&gt;攻击意图&lt;/color&gt;的时候，
@@ -145,9 +146,6 @@
     <t>那么医生——祝你好运！</t>
   </si>
   <si>
-    <t>base</t>
-  </si>
-  <si>
     <t>？？</t>
   </si>
   <si>
@@ -167,10 +165,6 @@
 也就是选择卡牌来组成卡组。</t>
   </si>
   <si>
-    <t>当你的卡组配好之后，
-点击右下角的&lt;color=#FF0000&gt;扫描按钮&lt;/color&gt;来查看细菌聚集的地方。</t>
-  </si>
-  <si>
     <t>每群敌人都会标记为一个&lt;color=#FF0000&gt;红点&lt;/color&gt;，
 点击后就可以查看我们为你准备的战斗简报。</t>
   </si>
@@ -179,10 +173,6 @@
 你可以点击战斗简报右下角的&lt;color=#FF0000&gt;按钮&lt;/color&gt;进入战斗。</t>
   </si>
   <si>
-    <t>别担心，我会指导你第一次战斗的！
-现在专心去&lt;color=#FF0000&gt;准备你的卡组&lt;/color&gt;吧！</t>
-  </si>
-  <si>
     <t>camp</t>
   </si>
   <si>
@@ -211,19 +201,51 @@
   </si>
   <si>
     <t>我们的商店前些天遭到了袭击，现在正在加紧维修。</t>
+  </si>
+  <si>
+    <t>base1</t>
+  </si>
+  <si>
+    <t>base1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击右下角的&lt;color=#FF0000&gt;扫描按钮&lt;/color&gt;来查看细菌聚集的地方。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>base2</t>
+  </si>
+  <si>
+    <t>base2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为首次战斗来说，打得不错。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你或许想要调整&lt;color=#FF0000&gt;队伍的构成&lt;/color&gt;？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>别担心，我会指导你第一次战斗的！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试优化你的卡组吧！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每轮进攻结束后，你会抽取新的卡牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,151 +267,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,194 +300,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -603,251 +309,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -873,71 +337,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1187,29 +607,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6203703703704" customWidth="1"/>
-    <col min="3" max="3" width="19.9074074074074" customWidth="1"/>
-    <col min="4" max="4" width="82.0648148148148" customWidth="1"/>
-    <col min="6" max="6" width="17.9074074074074" customWidth="1"/>
-    <col min="7" max="7" width="2.4537037037037" customWidth="1"/>
-    <col min="8" max="8" width="17.9074074074074" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" customWidth="1"/>
+    <col min="4" max="4" width="82.08984375" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" customWidth="1"/>
+    <col min="7" max="7" width="2.453125" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1246,7 +666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:6">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1263,7 +683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1277,7 +697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1288,7 +708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1305,14 +725,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="C7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1322,14 +742,14 @@
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="28.8" spans="1:6">
+    <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1339,12 +759,12 @@
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1354,12 +774,12 @@
       <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1369,12 +789,12 @@
       <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" ht="28.8" spans="1:6">
+    <row r="12" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1384,12 +804,12 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1399,12 +819,12 @@
       <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>23</v>
+      <c r="D13" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" ht="28.8" spans="1:6">
+    <row r="14" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1414,12 +834,12 @@
       <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>24</v>
+      <c r="D14" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" ht="28.8" spans="1:6">
+    <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1429,12 +849,12 @@
       <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>25</v>
+      <c r="D15" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1444,12 +864,12 @@
       <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>26</v>
+      <c r="D16" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" ht="43.2" spans="1:6">
+    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1459,12 +879,12 @@
       <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>27</v>
+      <c r="D17" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1474,27 +894,27 @@
       <c r="C18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" ht="43.2" spans="1:6">
+    <row r="20" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1504,12 +924,12 @@
       <c r="C20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>30</v>
+      <c r="D20" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" ht="28.8" spans="1:6">
+    <row r="21" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1519,12 +939,12 @@
       <c r="C21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>31</v>
+      <c r="D21" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1534,12 +954,12 @@
       <c r="C22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>32</v>
+      <c r="D22" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1549,12 +969,12 @@
       <c r="C23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>33</v>
+      <c r="D23" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" ht="28.8" spans="1:6">
+    <row r="24" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1564,12 +984,12 @@
       <c r="C24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>34</v>
+      <c r="D24" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1579,17 +999,17 @@
       <c r="C25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>35</v>
+      <c r="D25" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1597,7 +1017,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1605,7 +1025,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1613,7 +1033,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1621,7 +1041,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1629,277 +1049,369 @@
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>36</v>
+      <c r="B33" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" ht="28.8" spans="1:4">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>36</v>
+      <c r="B34" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>36</v>
+      <c r="B35" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" ht="28.8" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>36</v>
+      <c r="B36" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" ht="28.8" spans="1:6">
+      <c r="D36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>36</v>
+      <c r="B37" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" ht="28.8" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>36</v>
+      <c r="B38" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" ht="52" customHeight="1" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>36</v>
+      <c r="B39" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" ht="28.8" spans="1:4">
+      <c r="D39" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="8"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" s="8"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" ht="28.8" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="6" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
-      <c r="B61" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" t="s">
-        <v>55</v>
-      </c>
-      <c r="C66" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" t="s">
-        <v>56</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DEBEF9-78F4-4FE7-AAF8-8E233BF4ABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -103,6 +99,9 @@
   <si>
     <t>当一切部署就绪，
 你可以按下&lt;color=#FF0000&gt;中间大大的红色按钮&lt;/color&gt;发起进攻。</t>
+  </si>
+  <si>
+    <t>每轮进攻结束后，你会抽取新的卡牌。</t>
   </si>
   <si>
     <t>当敌人出现&lt;color=#FF0000&gt;攻击意图&lt;/color&gt;的时候，
@@ -146,6 +145,9 @@
     <t>那么医生——祝你好运！</t>
   </si>
   <si>
+    <t>base1</t>
+  </si>
+  <si>
     <t>？？</t>
   </si>
   <si>
@@ -159,24 +161,41 @@
   </si>
   <si>
     <t>这里是&lt;color=#FF0000&gt;前线基地&lt;/color&gt;，也是战前准备的地方。</t>
+  </si>
+  <si>
+    <t>你可以点击右下角的&lt;color=#FF0000&gt;扫描按钮&lt;/color&gt;来查看细菌聚集的地方。</t>
+  </si>
+  <si>
+    <t>每群敌人都会标记为一个&lt;color=#FF0000&gt;红点&lt;/color&gt;，
+点击后就可以查看我们为你准备的战斗简报。</t>
+  </si>
+  <si>
+    <t>点击战斗简报右下角的&lt;color=#FF0000&gt;进攻按钮&lt;/color&gt;就可以进入战斗了。</t>
+  </si>
+  <si>
+    <t>别担心，我会指导你第一次战斗的！现在快去抗击第一波敌人吧！</t>
+  </si>
+  <si>
+    <t>base2</t>
+  </si>
+  <si>
+    <t>作为首次战斗——打得还算是不错。</t>
+  </si>
+  <si>
+    <t>或许你想要调整&lt;color=#FF0000&gt;队伍的构成&lt;/color&gt;？</t>
   </si>
   <si>
     <t>右上角的&lt;color=#00610A&gt;军营&lt;/color&gt;可以配置你的队伍——
 也就是选择卡牌来组成卡组。</t>
   </si>
   <si>
-    <t>每群敌人都会标记为一个&lt;color=#FF0000&gt;红点&lt;/color&gt;，
-点击后就可以查看我们为你准备的战斗简报。</t>
-  </si>
-  <si>
-    <t>一切准备就绪后，
-你可以点击战斗简报右下角的&lt;color=#FF0000&gt;按钮&lt;/color&gt;进入战斗。</t>
+    <t>尝试优化你的卡组吧！</t>
   </si>
   <si>
     <t>camp</t>
   </si>
   <si>
-    <t>这里是军营，你可以在这里配置你的队伍。</t>
+    <t>欢迎来到军营，你可以在这里配置你的队伍。</t>
   </si>
   <si>
     <t>点击右侧仓库中的卡牌来加入卡组，点击卡组中的卡牌可以将它放回仓库。</t>
@@ -201,51 +220,19 @@
   </si>
   <si>
     <t>我们的商店前些天遭到了袭击，现在正在加紧维修。</t>
-  </si>
-  <si>
-    <t>base1</t>
-  </si>
-  <si>
-    <t>base1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击右下角的&lt;color=#FF0000&gt;扫描按钮&lt;/color&gt;来查看细菌聚集的地方。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>base2</t>
-  </si>
-  <si>
-    <t>base2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为首次战斗来说，打得不错。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>你或许想要调整&lt;color=#FF0000&gt;队伍的构成&lt;/color&gt;？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>别担心，我会指导你第一次战斗的！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>尝试优化你的卡组吧！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每轮进攻结束后，你会抽取新的卡牌。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,19 +242,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -276,12 +250,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,8 +417,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -309,9 +612,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -322,42 +867,86 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -607,29 +1196,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D59" sqref="D54 D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" customWidth="1"/>
-    <col min="4" max="4" width="82.08984375" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" customWidth="1"/>
-    <col min="7" max="7" width="2.453125" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="19.9074074074074" customWidth="1"/>
+    <col min="4" max="4" width="82.0925925925926" customWidth="1"/>
+    <col min="6" max="6" width="17.9074074074074" customWidth="1"/>
+    <col min="7" max="7" width="2.4537037037037" customWidth="1"/>
+    <col min="8" max="8" width="17.9074074074074" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +1241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -666,7 +1255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="3" ht="28.8" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -683,7 +1272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -697,7 +1286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -708,7 +1297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -725,14 +1314,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="C7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -749,7 +1338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="9" ht="28.8" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -764,7 +1353,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8</v>
       </c>
@@ -779,7 +1368,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
@@ -794,7 +1383,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="12" ht="28.8" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
@@ -809,7 +1398,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>11</v>
       </c>
@@ -820,11 +1409,11 @@
         <v>9</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="14" ht="28.8" spans="1:6">
       <c r="A14">
         <v>12</v>
       </c>
@@ -835,11 +1424,11 @@
         <v>9</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="15" ht="28.8" spans="1:6">
       <c r="A15">
         <v>13</v>
       </c>
@@ -850,11 +1439,11 @@
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>14</v>
       </c>
@@ -865,11 +1454,11 @@
         <v>9</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.25">
+    <row r="17" ht="28.8" spans="1:6">
       <c r="A17">
         <v>15</v>
       </c>
@@ -880,11 +1469,11 @@
         <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>16</v>
       </c>
@@ -895,11 +1484,11 @@
         <v>9</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>17</v>
       </c>
@@ -910,11 +1499,11 @@
         <v>9</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+    <row r="20" ht="43.2" spans="1:6">
       <c r="A20">
         <v>18</v>
       </c>
@@ -925,11 +1514,11 @@
         <v>9</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="28" x14ac:dyDescent="0.25">
+    <row r="21" ht="28.8" spans="1:6">
       <c r="A21">
         <v>19</v>
       </c>
@@ -940,11 +1529,11 @@
         <v>9</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>20</v>
       </c>
@@ -955,11 +1544,11 @@
         <v>9</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>21</v>
       </c>
@@ -970,11 +1559,11 @@
         <v>9</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="28" x14ac:dyDescent="0.25">
+    <row r="24" ht="28.8" spans="1:6">
       <c r="A24">
         <v>22</v>
       </c>
@@ -985,11 +1574,11 @@
         <v>9</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1000,16 +1589,16 @@
         <v>9</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1017,7 +1606,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1025,7 +1614,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1033,7 +1622,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1041,7 +1630,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1049,369 +1638,369 @@
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28" x14ac:dyDescent="0.25">
+    <row r="37" ht="28.8" spans="1:6">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" ht="52" customHeight="1" spans="1:4">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" s="8"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" ht="28.8" spans="1:4">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E1873E-A289-4D1D-9399-0E43B4B2746D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E7E439-F005-4839-95E7-C6B99D315409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -220,9 +220,6 @@
     <t>shop_unprepare</t>
   </si>
   <si>
-    <t>我们的商店前些天遭到了袭击，现在正在加紧维修。</t>
-  </si>
-  <si>
     <t>shop</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -248,6 +245,153 @@
   </si>
   <si>
     <t>如果你的钱足够，可以点击左侧的&lt;color=#FF0000&gt;购买按钮&lt;/color&gt;完成购物。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>camp_unprepare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教官</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>试过战斗之后再来参观军营吧。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店还需要一小会才能开放。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒惰病毒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossFight1_1</t>
+  </si>
+  <si>
+    <t>BossFight1_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZZZ……</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZZZZZZZZZZZ……</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZ……</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossFight1_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不准打扰我睡觉！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossFight2_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺病毒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈哈哈！
+抓不到我，傻瓜！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossFight3_1</t>
+  </si>
+  <si>
+    <t>BossFight3_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>细菌军团</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>准！！！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备！！！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受！！！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>死！！！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossFight4_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌病毒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNBVCXZLKJHGFDSAPOIUYTREWQ……</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossFight5_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵族病毒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossFight5_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>来杯咖啡吗，朋友？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打翻别人的咖啡可不是绅士所为。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossFight6_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>病毒之王</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我即是终结！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossFight6_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossFight6_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷土重来！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不！！！！！！！！！！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -620,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1336,20 +1480,20 @@
       <c r="A60">
         <v>58</v>
       </c>
+      <c r="B60" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -1360,6 +1504,15 @@
       <c r="A63">
         <v>61</v>
       </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -1381,8 +1534,8 @@
       <c r="C66" t="s">
         <v>9</v>
       </c>
-      <c r="D66" t="s">
-        <v>59</v>
+      <c r="D66" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1410,13 +1563,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1424,13 +1577,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1438,13 +1591,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1452,13 +1605,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1466,13 +1619,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1494,20 +1647,326 @@
       <c r="A79">
         <v>77</v>
       </c>
+      <c r="B79" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E7E439-F005-4839-95E7-C6B99D315409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B9541A-0852-4318-BB1E-ABCA730833DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="104">
   <si>
     <t>ID</t>
   </si>
@@ -351,10 +351,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>贵族病毒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BossFight5_2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -392,6 +388,14 @@
   </si>
   <si>
     <t>不！！！！！！！！！！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家病毒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒惰病毒2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -766,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1651,7 +1655,7 @@
         <v>72</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>73</v>
@@ -1665,7 +1669,7 @@
         <v>72</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>74</v>
@@ -1679,7 +1683,7 @@
         <v>71</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>75</v>
@@ -1842,10 +1846,10 @@
         <v>91</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1858,13 +1862,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1882,13 +1886,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C103" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="D103" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1901,13 +1905,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1920,13 +1924,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B9541A-0852-4318-BB1E-ABCA730833DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48511182-A515-4749-A267-8E5680FA8175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -396,6 +396,10 @@
   </si>
   <si>
     <t>懒惰病毒2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家病毒2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -770,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1865,7 +1869,7 @@
         <v>92</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>94</v>

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48511182-A515-4749-A267-8E5680FA8175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EA1479-C41E-428E-9A3E-6C44596F9AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,10 +359,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>打翻别人的咖啡可不是绅士所为。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BossFight6_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -395,11 +391,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>懒惰病毒2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇家病毒2</t>
+    <t>懒惰病毒（睡着）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家病毒（红温）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你竟敢打翻我的咖啡！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +775,7 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1659,7 +1659,7 @@
         <v>72</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>73</v>
@@ -1673,7 +1673,7 @@
         <v>72</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>74</v>
@@ -1687,7 +1687,7 @@
         <v>71</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>75</v>
@@ -1850,7 +1850,7 @@
         <v>91</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>93</v>
@@ -1869,10 +1869,10 @@
         <v>92</v>
       </c>
       <c r="C100" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1890,13 +1890,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C103" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="D103" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1909,13 +1909,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1928,13 +1928,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EA1479-C41E-428E-9A3E-6C44596F9AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA36108-823A-4856-BBD9-52A727DDB4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1454,9 +1454,6 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>51</v>
-      </c>
       <c r="C55" t="s">
         <v>9</v>
       </c>

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA36108-823A-4856-BBD9-52A727DDB4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952E3C2C-EB8A-4789-AB87-FD21E6890B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -108,10 +108,6 @@
     <t>每轮进攻结束后，你会抽取新的卡牌。</t>
   </si>
   <si>
-    <t>当敌人出现&lt;color=#FF0000&gt;攻击意图&lt;/color&gt;的时候，
-打出防御系的牌来&lt;color=#484848&gt;格挡&lt;/color&gt;。</t>
-  </si>
-  <si>
     <t>&lt;color=#484848&gt;格挡&lt;/color&gt;能够抵消一部分伤害，
 但会在回合结束时消失。</t>
   </si>
@@ -119,22 +115,10 @@
     <t>另外，不同的卡牌发挥效果的时机也不同！</t>
   </si>
   <si>
-    <t>方形的指令牌被放到战场上后，会&lt;color=#FF0000&gt;马上执行效果&lt;/color&gt;，
-但卡牌上标注有锁定的卡牌在执行效果后&lt;color=#FF0000&gt;没法被拿起&lt;/color&gt;。</t>
-  </si>
-  <si>
     <t>所以还请多加留意。</t>
   </si>
   <si>
     <t>有些效果需要其他卡牌的协助：</t>
-  </si>
-  <si>
-    <t>其他卡牌会激活&lt;color=#191970&gt;触发效果&lt;/color&gt;的能力；
-&lt;color=#FF0000&gt;给予效果&lt;/color&gt;的能力可以影响其他的卡牌;
-&lt;color=#BE5700&gt;扩展格子&lt;/color&gt;可以开启被锁住的格子，增加战场空间。</t>
-  </si>
-  <si>
-    <t>&lt;color=#191970&gt;触发效果&lt;/color&gt;、&lt;color=#FF0000&gt;给予效果&lt;/color&gt;和&lt;color=#BE5700&gt;扩展格子&lt;/color&gt;的具体效果可以查看卡牌描述。</t>
   </si>
   <si>
     <t>在你排兵布阵的时候，别忘了查看敌人头顶上的意图！</t>
@@ -400,6 +384,26 @@
   </si>
   <si>
     <t>你竟敢打翻我的咖啡！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;sprite=4&gt;会被其他卡牌激活；
+&lt;sprite=5&gt;可以影响其他的卡牌;
+&lt;sprite=3&gt;可以开启被锁住的格子，增加战场空间。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体效果可以查看卡牌描述。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当敌人头顶出现&lt;color=#FF0000&gt;攻击意图&lt;/color&gt;的时候，
+打出防御系的牌来&lt;color=#484848&gt;格挡&lt;/color&gt;。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>方形&lt;sprite=1&gt;指令牌被放到战场上后，会&lt;color=#FF0000&gt;马上执行效果&lt;/color&gt;，
+但标注有锁定的卡牌在执行效果后&lt;color=#FF0000&gt;没法被拿起&lt;/color&gt;。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -774,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -986,8 +990,8 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
+      <c r="D14" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.25">
@@ -1001,7 +1005,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1015,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.25">
@@ -1028,8 +1032,8 @@
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>27</v>
+      <c r="D17" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,7 +1047,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1057,7 +1061,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42" x14ac:dyDescent="0.25">
@@ -1070,11 +1074,11 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="28" x14ac:dyDescent="0.25">
+      <c r="D20" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1084,22 +1088,19 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>31</v>
+      <c r="D21" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1113,7 +1114,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28" x14ac:dyDescent="0.25">
@@ -1127,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1141,7 +1142,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,13 +1185,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -1201,13 +1202,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1215,13 +1216,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1229,13 +1230,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1243,13 +1244,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -1260,13 +1261,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -1277,13 +1278,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.25">
@@ -1291,13 +1292,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,13 +1318,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,13 +1332,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.25">
@@ -1345,13 +1346,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,13 +1360,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1399,13 +1400,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1413,13 +1414,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1427,13 +1428,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1441,13 +1442,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1458,7 +1459,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1486,13 +1487,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1510,13 +1511,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1534,13 +1535,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1568,13 +1569,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1582,13 +1583,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1596,13 +1597,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1610,13 +1611,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1624,13 +1625,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="C75" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,13 +1654,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,13 +1668,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,13 +1682,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1702,13 +1703,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1728,13 +1729,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,13 +1755,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,13 +1769,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1782,13 +1783,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,13 +1797,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C92" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1820,13 +1821,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1844,13 +1845,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1863,13 +1864,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1887,13 +1888,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1906,13 +1907,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C105" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1925,13 +1926,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952E3C2C-EB8A-4789-AB87-FD21E6890B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE7EB79-EF1B-4CF0-A1FA-4CE73B9BAD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE7EB79-EF1B-4CF0-A1FA-4CE73B9BAD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA145D3B-09D5-40C8-B429-395D6A6958F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,10 +347,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>病毒之王</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>我即是终结！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -404,6 +400,10 @@
   <si>
     <t>方形&lt;sprite=1&gt;指令牌被放到战场上后，会&lt;color=#FF0000&gt;马上执行效果&lt;/color&gt;，
 但标注有锁定的卡牌在执行效果后&lt;color=#FF0000&gt;没法被拿起&lt;/color&gt;。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病之王</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -991,7 +991,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.25">
@@ -1033,7 +1033,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1657,7 +1657,7 @@
         <v>68</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>69</v>
@@ -1671,7 +1671,7 @@
         <v>68</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>70</v>
@@ -1685,7 +1685,7 @@
         <v>67</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>71</v>
@@ -1848,7 +1848,7 @@
         <v>87</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>89</v>
@@ -1867,10 +1867,10 @@
         <v>88</v>
       </c>
       <c r="C100" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1891,10 +1891,10 @@
         <v>90</v>
       </c>
       <c r="C103" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1907,13 +1907,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1926,13 +1926,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA145D3B-09D5-40C8-B429-395D6A6958F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09E6DAA-2DF4-4021-BA1F-403C71A9FE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -170,9 +170,6 @@
     <t>作为首次战斗——打得还算是不错。</t>
   </si>
   <si>
-    <t>或许你想要调整&lt;color=#FF0000&gt;队伍的构成&lt;/color&gt;？</t>
-  </si>
-  <si>
     <t>右上角的&lt;color=#00610A&gt;军营&lt;/color&gt;可以配置你的队伍——
 也就是选择卡牌来组成卡组。</t>
   </si>
@@ -192,9 +189,6 @@
     <t>右键点击仓库中的卡牌可以放大检视。</t>
   </si>
   <si>
-    <t>击败敌人之后，可以获得更多种类的其他卡牌；</t>
-  </si>
-  <si>
     <t>wiki_unprepare</t>
   </si>
   <si>
@@ -221,10 +215,6 @@
   </si>
   <si>
     <t>击败敌人之后，会有更多种类的卡牌上架。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不过要注意了，如果你失败了，你会&lt;color=#FF0000&gt;损失队伍中所有的卡牌。&lt;/color&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -404,6 +394,21 @@
   </si>
   <si>
     <t>疾病之王</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许你想要调整&lt;color=#FF0000&gt;队伍的构成&lt;/color&gt;？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡组中至少要有&lt;color=#FF0000&gt;20&lt;/color&gt;张牌，
+最多不能超过&lt;color=#FF0000&gt;40&lt;/color&gt;张牌，
+同名卡牌不能超过&lt;color=#FF0000&gt;4&lt;/color&gt;张。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果卡牌数量不足&lt;color=#FF0000&gt;20&lt;/color&gt;张，
+会自动用&lt;sprite=0&gt;民兵填充。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -778,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -991,7 +996,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.25">
@@ -1033,7 +1038,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1075,7 +1080,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1089,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,8 +1342,8 @@
       <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>44</v>
+      <c r="D43" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.25">
@@ -1352,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,7 +1371,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1400,13 +1405,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1414,13 +1419,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1428,38 +1433,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="42" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
       <c r="C55" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1487,13 +1495,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1511,13 +1519,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1535,13 +1543,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1569,13 +1577,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1583,13 +1591,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,13 +1605,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,13 +1619,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,13 +1633,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1654,13 +1662,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,13 +1676,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1682,13 +1690,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1703,13 +1711,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,13 +1737,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1755,13 +1763,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1769,13 +1777,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1783,13 +1791,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C91" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1797,13 +1805,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1821,13 +1829,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1845,13 +1853,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1864,13 +1872,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1888,13 +1896,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1907,13 +1915,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1926,13 +1934,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">

--- a/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
+++ b/Assets/Resources/ScriptableObjects/Tutorial/Excel/TutorialLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Slay-the-Virus-2\Assets\Resources\ScriptableObjects\Tutorial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09E6DAA-2DF4-4021-BA1F-403C71A9FE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5024264-7CA1-4EA1-85D3-E310A706B93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,17 +170,7 @@
     <t>作为首次战斗——打得还算是不错。</t>
   </si>
   <si>
-    <t>右上角的&lt;color=#00610A&gt;军营&lt;/color&gt;可以配置你的队伍——
-也就是选择卡牌来组成卡组。</t>
-  </si>
-  <si>
-    <t>尝试优化你的卡组吧！</t>
-  </si>
-  <si>
     <t>camp</t>
-  </si>
-  <si>
-    <t>欢迎来到军营，你可以在这里配置你的队伍。</t>
   </si>
   <si>
     <t>点击右侧仓库中的卡牌来加入卡组，点击卡组中的卡牌可以将它放回仓库。</t>
@@ -409,6 +399,18 @@
   <si>
     <t>如果卡牌数量不足&lt;color=#FF0000&gt;20&lt;/color&gt;张，
 会自动用&lt;sprite=0&gt;民兵填充。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>向你介绍军营，你可以在这里配置你的队伍。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击商店试试吧。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了右上角的&lt;color=#00610A&gt;军营&lt;/color&gt;，还可以在商店里补充卡牌。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -784,7 +786,7 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -996,7 +998,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.25">
@@ -1038,7 +1040,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1080,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1094,7 +1096,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1328,8 +1330,8 @@
       <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>43</v>
+      <c r="D42" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1343,47 +1345,34 @@
         <v>9</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="B44" s="5"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
+      <c r="B47" s="5"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -1394,24 +1383,42 @@
       <c r="A49">
         <v>47</v>
       </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>47</v>
+      <c r="D51" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1419,13 +1426,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1433,13 +1440,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="42" x14ac:dyDescent="0.25">
@@ -1447,13 +1454,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="28" x14ac:dyDescent="0.25">
@@ -1461,13 +1468,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,13 +1502,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,13 +1526,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,13 +1550,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1577,13 +1584,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C71" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1591,13 +1598,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1605,13 +1612,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="C73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1619,13 +1626,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1633,13 +1640,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1662,13 +1669,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1676,13 +1683,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,13 +1697,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1711,13 +1718,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,13 +1744,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1763,13 +1770,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1777,13 +1784,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1791,13 +1798,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C91" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1805,13 +1812,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1829,13 +1836,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1853,13 +1860,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1872,13 +1879,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1896,13 +1903,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,13 +1922,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1934,13 +1941,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
